--- a/config_7.20/item_config.xlsx
+++ b/config_7.20/item_config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$326</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$341</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3660,7 +3660,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3721,35 +3721,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3772,7 +3764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3780,7 +3772,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3795,7 +3816,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3803,22 +3824,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3826,7 +3832,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3841,37 +3855,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3931,7 +3924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3943,7 +3948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3955,7 +3966,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3967,19 +4026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3991,67 +4074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4063,37 +4086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,17 +4132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4169,6 +4156,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4180,24 +4200,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4227,15 +4229,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4244,10 +4237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4256,139 +4249,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4515,10 +4508,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4844,10 +4834,10 @@
   <sheetPr/>
   <dimension ref="A1:Q341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D340" sqref="D340"/>
+      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15665,7 +15655,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="16" t="s">
-        <v>501</v>
+        <v>592</v>
       </c>
       <c r="J319" s="14" t="s">
         <v>998</v>
@@ -15905,13 +15895,13 @@
       <c r="C327" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="D327" s="42">
+      <c r="D327" s="14">
         <v>-1</v>
       </c>
       <c r="E327" s="3">
         <v>1</v>
       </c>
-      <c r="F327" s="42" t="s">
+      <c r="F327" s="14" t="s">
         <v>1023</v>
       </c>
       <c r="G327" s="10">
@@ -15920,10 +15910,10 @@
       <c r="H327" s="10">
         <v>33</v>
       </c>
-      <c r="I327" s="43" t="s">
+      <c r="I327" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="J327" s="42" t="s">
+      <c r="J327" s="14" t="s">
         <v>1025</v>
       </c>
       <c r="L327" t="s">
@@ -15940,13 +15930,13 @@
       <c r="C328" s="10" t="s">
         <v>1027</v>
       </c>
-      <c r="D328" s="42">
+      <c r="D328" s="14">
         <v>-1</v>
       </c>
       <c r="E328" s="3">
         <v>1</v>
       </c>
-      <c r="F328" s="42" t="s">
+      <c r="F328" s="14" t="s">
         <v>1028</v>
       </c>
       <c r="G328" s="10">
@@ -15955,10 +15945,10 @@
       <c r="H328" s="10">
         <v>33</v>
       </c>
-      <c r="I328" s="43" t="s">
+      <c r="I328" s="42" t="s">
         <v>1029</v>
       </c>
-      <c r="J328" s="42" t="s">
+      <c r="J328" s="14" t="s">
         <v>1030</v>
       </c>
       <c r="L328" t="s">
@@ -15975,13 +15965,13 @@
       <c r="C329" s="10" t="s">
         <v>1032</v>
       </c>
-      <c r="D329" s="42">
+      <c r="D329" s="14">
         <v>-1</v>
       </c>
       <c r="E329" s="3">
         <v>1</v>
       </c>
-      <c r="F329" s="42" t="s">
+      <c r="F329" s="14" t="s">
         <v>1033</v>
       </c>
       <c r="G329" s="10">
@@ -15990,10 +15980,10 @@
       <c r="H329" s="10">
         <v>33</v>
       </c>
-      <c r="I329" s="43" t="s">
+      <c r="I329" s="42" t="s">
         <v>1034</v>
       </c>
-      <c r="J329" s="42" t="s">
+      <c r="J329" s="14" t="s">
         <v>1035</v>
       </c>
       <c r="L329" t="s">
@@ -16010,13 +16000,13 @@
       <c r="C330" s="10" t="s">
         <v>1037</v>
       </c>
-      <c r="D330" s="42">
+      <c r="D330" s="14">
         <v>-1</v>
       </c>
       <c r="E330" s="3">
         <v>1</v>
       </c>
-      <c r="F330" s="42" t="s">
+      <c r="F330" s="14" t="s">
         <v>1038</v>
       </c>
       <c r="G330" s="10">
@@ -16025,10 +16015,10 @@
       <c r="H330" s="10">
         <v>33</v>
       </c>
-      <c r="I330" s="43" t="s">
+      <c r="I330" s="42" t="s">
         <v>1039</v>
       </c>
-      <c r="J330" s="42" t="s">
+      <c r="J330" s="14" t="s">
         <v>1040</v>
       </c>
       <c r="L330" t="s">
@@ -16045,13 +16035,13 @@
       <c r="C331" s="10" t="s">
         <v>1042</v>
       </c>
-      <c r="D331" s="42">
+      <c r="D331" s="14">
         <v>-1</v>
       </c>
       <c r="E331" s="3">
         <v>1</v>
       </c>
-      <c r="F331" s="42" t="s">
+      <c r="F331" s="14" t="s">
         <v>1043</v>
       </c>
       <c r="G331" s="10">
@@ -16060,10 +16050,10 @@
       <c r="H331" s="10">
         <v>33</v>
       </c>
-      <c r="I331" s="43" t="s">
+      <c r="I331" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="J331" s="42" t="s">
+      <c r="J331" s="14" t="s">
         <v>1044</v>
       </c>
       <c r="L331" t="s">
@@ -16080,13 +16070,13 @@
       <c r="C332" s="10" t="s">
         <v>1045</v>
       </c>
-      <c r="D332" s="42">
+      <c r="D332" s="14">
         <v>-1</v>
       </c>
       <c r="E332" s="3">
         <v>1</v>
       </c>
-      <c r="F332" s="42" t="s">
+      <c r="F332" s="14" t="s">
         <v>1046</v>
       </c>
       <c r="G332" s="10">
@@ -16095,10 +16085,10 @@
       <c r="H332" s="10">
         <v>33</v>
       </c>
-      <c r="I332" s="43" t="s">
+      <c r="I332" s="42" t="s">
         <v>1029</v>
       </c>
-      <c r="J332" s="42" t="s">
+      <c r="J332" s="14" t="s">
         <v>1047</v>
       </c>
       <c r="L332" t="s">
@@ -16115,13 +16105,13 @@
       <c r="C333" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="D333" s="42">
+      <c r="D333" s="14">
         <v>-1</v>
       </c>
       <c r="E333" s="3">
         <v>1</v>
       </c>
-      <c r="F333" s="42" t="s">
+      <c r="F333" s="14" t="s">
         <v>1049</v>
       </c>
       <c r="G333" s="10">
@@ -16130,10 +16120,10 @@
       <c r="H333" s="10">
         <v>33</v>
       </c>
-      <c r="I333" s="43" t="s">
+      <c r="I333" s="42" t="s">
         <v>1034</v>
       </c>
-      <c r="J333" s="42" t="s">
+      <c r="J333" s="14" t="s">
         <v>1050</v>
       </c>
       <c r="L333" t="s">
@@ -16150,13 +16140,13 @@
       <c r="C334" s="10" t="s">
         <v>1051</v>
       </c>
-      <c r="D334" s="42">
+      <c r="D334" s="14">
         <v>-1</v>
       </c>
       <c r="E334" s="3">
         <v>1</v>
       </c>
-      <c r="F334" s="42" t="s">
+      <c r="F334" s="14" t="s">
         <v>1052</v>
       </c>
       <c r="G334" s="10">
@@ -16165,10 +16155,10 @@
       <c r="H334" s="10">
         <v>33</v>
       </c>
-      <c r="I334" s="43" t="s">
+      <c r="I334" s="42" t="s">
         <v>1039</v>
       </c>
-      <c r="J334" s="42" t="s">
+      <c r="J334" s="14" t="s">
         <v>1053</v>
       </c>
       <c r="L334" t="s">
@@ -16185,13 +16175,13 @@
       <c r="C335" s="10" t="s">
         <v>1054</v>
       </c>
-      <c r="D335" s="42">
+      <c r="D335" s="14">
         <v>-1</v>
       </c>
       <c r="E335" s="3">
         <v>1</v>
       </c>
-      <c r="F335" s="42" t="s">
+      <c r="F335" s="14" t="s">
         <v>1055</v>
       </c>
       <c r="G335" s="10">
@@ -16200,10 +16190,10 @@
       <c r="H335" s="10">
         <v>33</v>
       </c>
-      <c r="I335" s="43" t="s">
+      <c r="I335" s="42" t="s">
         <v>1024</v>
       </c>
-      <c r="J335" s="42" t="s">
+      <c r="J335" s="14" t="s">
         <v>1056</v>
       </c>
       <c r="L335" t="s">
@@ -16220,13 +16210,13 @@
       <c r="C336" s="10" t="s">
         <v>1057</v>
       </c>
-      <c r="D336" s="42">
+      <c r="D336" s="14">
         <v>-1</v>
       </c>
       <c r="E336" s="3">
         <v>1</v>
       </c>
-      <c r="F336" s="42" t="s">
+      <c r="F336" s="14" t="s">
         <v>1058</v>
       </c>
       <c r="G336" s="10">
@@ -16235,10 +16225,10 @@
       <c r="H336" s="10">
         <v>33</v>
       </c>
-      <c r="I336" s="43" t="s">
+      <c r="I336" s="42" t="s">
         <v>1029</v>
       </c>
-      <c r="J336" s="42" t="s">
+      <c r="J336" s="14" t="s">
         <v>1059</v>
       </c>
       <c r="L336" t="s">
@@ -16255,13 +16245,13 @@
       <c r="C337" s="10" t="s">
         <v>1060</v>
       </c>
-      <c r="D337" s="42">
+      <c r="D337" s="14">
         <v>-1</v>
       </c>
       <c r="E337" s="3">
         <v>1</v>
       </c>
-      <c r="F337" s="42" t="s">
+      <c r="F337" s="14" t="s">
         <v>1061</v>
       </c>
       <c r="G337" s="10">
@@ -16270,10 +16260,10 @@
       <c r="H337" s="10">
         <v>33</v>
       </c>
-      <c r="I337" s="43" t="s">
+      <c r="I337" s="42" t="s">
         <v>1034</v>
       </c>
-      <c r="J337" s="42" t="s">
+      <c r="J337" s="14" t="s">
         <v>1062</v>
       </c>
       <c r="L337" t="s">
@@ -16290,13 +16280,13 @@
       <c r="C338" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="D338" s="42">
+      <c r="D338" s="14">
         <v>-1</v>
       </c>
       <c r="E338" s="3">
         <v>1</v>
       </c>
-      <c r="F338" s="42" t="s">
+      <c r="F338" s="14" t="s">
         <v>1064</v>
       </c>
       <c r="G338" s="10">
@@ -16305,10 +16295,10 @@
       <c r="H338" s="10">
         <v>33</v>
       </c>
-      <c r="I338" s="43" t="s">
+      <c r="I338" s="42" t="s">
         <v>1039</v>
       </c>
-      <c r="J338" s="42" t="s">
+      <c r="J338" s="14" t="s">
         <v>1065</v>
       </c>
       <c r="L338" t="s">
@@ -16322,10 +16312,10 @@
       <c r="B339" s="10">
         <v>341</v>
       </c>
-      <c r="C339" s="42" t="s">
+      <c r="C339" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="D339" s="42">
+      <c r="D339" s="14">
         <v>-1</v>
       </c>
       <c r="E339" s="3">
@@ -16340,10 +16330,10 @@
       <c r="H339" s="10">
         <v>33</v>
       </c>
-      <c r="I339" s="43" t="s">
+      <c r="I339" s="42" t="s">
         <v>1068</v>
       </c>
-      <c r="J339" s="42" t="s">
+      <c r="J339" s="14" t="s">
         <v>1069</v>
       </c>
       <c r="L339" t="s">
@@ -16357,10 +16347,10 @@
       <c r="B340" s="10">
         <v>342</v>
       </c>
-      <c r="C340" s="42" t="s">
+      <c r="C340" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="D340" s="42">
+      <c r="D340" s="14">
         <v>-1</v>
       </c>
       <c r="E340" s="3">
@@ -16375,10 +16365,10 @@
       <c r="H340" s="10">
         <v>33</v>
       </c>
-      <c r="I340" s="43" t="s">
+      <c r="I340" s="42" t="s">
         <v>1073</v>
       </c>
-      <c r="J340" s="42" t="s">
+      <c r="J340" s="14" t="s">
         <v>1074</v>
       </c>
       <c r="L340" t="s">
@@ -16392,10 +16382,10 @@
       <c r="B341" s="10">
         <v>343</v>
       </c>
-      <c r="C341" s="42" t="s">
+      <c r="C341" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="D341" s="42">
+      <c r="D341" s="14">
         <v>-1</v>
       </c>
       <c r="E341" s="3">
@@ -16410,10 +16400,10 @@
       <c r="H341" s="10">
         <v>33</v>
       </c>
-      <c r="I341" s="43" t="s">
+      <c r="I341" s="42" t="s">
         <v>1078</v>
       </c>
-      <c r="J341" s="42" t="s">
+      <c r="J341" s="14" t="s">
         <v>1079</v>
       </c>
       <c r="L341" t="s">
@@ -16421,7 +16411,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q326">
+  <autoFilter ref="A1:Q341">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_7.20/item_config.xlsx
+++ b/config_7.20/item_config.xlsx
@@ -1764,7 +1764,7 @@
     <t>act_ty_by_drop_7</t>
   </si>
   <si>
-    <t>啤酒券</t>
+    <t>龙虾券</t>
   </si>
   <si>
     <t>掉落物活动通用道具</t>
@@ -3655,10 +3655,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3726,14 +3726,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3741,15 +3749,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3771,8 +3787,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3786,15 +3810,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3808,25 +3833,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3838,33 +3848,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3930,7 +3930,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3942,7 +4026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3954,19 +4038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3978,43 +4050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4026,55 +4068,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4087,12 +4093,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,8 +4134,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4152,6 +4154,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4174,17 +4200,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4203,32 +4229,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4237,10 +4237,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4249,109 +4249,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4360,26 +4360,26 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4834,10 +4834,10 @@
   <sheetPr/>
   <dimension ref="A1:Q341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J322" sqref="J322"/>
+      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_7.20/item_config.xlsx
+++ b/config_7.20/item_config.xlsx
@@ -3379,7 +3379,7 @@
     <t>prop_grade</t>
   </si>
   <si>
-    <t>com_icon_cl</t>
+    <t>jf_icon_1</t>
   </si>
   <si>
     <t>用于参加排行榜</t>
@@ -3655,9 +3655,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -3732,19 +3732,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3757,15 +3755,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3780,14 +3777,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3803,32 +3821,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3842,29 +3838,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3924,13 +3924,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3948,7 +3978,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3960,13 +4026,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3978,31 +4074,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4014,79 +4086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,11 +4134,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4158,17 +4156,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4193,24 +4191,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4229,6 +4214,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4240,7 +4240,7 @@
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4249,16 +4249,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4267,106 +4267,106 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4375,11 +4375,11 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4835,9 +4835,9 @@
   <dimension ref="A1:Q341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H131" sqref="H131"/>
+      <selection pane="bottomLeft" activeCell="F319" sqref="F319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
